--- a/To Be Modeled/Etsy.xlsx
+++ b/To Be Modeled/Etsy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42976CFE-69C4-C743-922F-39E390CA27BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E3DDD7-DA04-9B4F-B2A4-3DFBD2E774C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2222,11 +2222,12 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2243,20 +2244,21 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
         <row r="8">
           <cell r="C8">
-            <v>3.7450000000000004E-2</v>
+            <v>3.7229999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2383,12 +2385,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>149.91</v>
-    <v>67.010000000000005</v>
-    <v>2.0038</v>
-    <v>-0.73</v>
-    <v>-8.0010000000000012E-3</v>
-    <v>-0.01</v>
-    <v>-1.105E-4</v>
+    <v>70.4602</v>
+    <v>2.004</v>
+    <v>-2.67</v>
+    <v>-2.8978E-2</v>
     <v>USD</v>
     <v>Etsy, Inc. (Etsy) operates two-sided online marketplaces that connect buyers and sellers around the world. The Company operates through four segments: Etsy, Reverb, Depop, and Elo7. The Company’s primary marketplace, Etsy.com, is the global destination for goods made by independent sellers. Its Reverb is a two-sided marketplace on the principle that buying and selling musical instruments should be easy. The Company’s Depop is dedicated to building a diverse and progressive home of fashion. Its Elo7, known as the Etsy of Brazil, specializes in custom and made-to-order merchandise. Its Elo7 marketplace includes items in over 40 retail categories. Its services include on-site advertising services, which allow Etsy sellers to pay for placement of its listings in search results, and shipping labels, which allow Etsy sellers in the United States, Canada, United Kingdom, Australia, and India to purchase discounted shipping labels.</v>
     <v>2790</v>
@@ -2396,25 +2396,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>117 Adams Street, BROOKLYN, NY, 11201 US</v>
-    <v>91.894999999999996</v>
+    <v>91.92</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45089.99954075156</v>
+    <v>45100.77398153906</v>
     <v>0</v>
-    <v>87.64</v>
-    <v>11164580469</v>
+    <v>89.43</v>
+    <v>11365640000</v>
     <v>ETSY, INC.</v>
     <v>ETSY, INC.</v>
-    <v>91.89</v>
+    <v>91.28</v>
     <v>31.364899999999999</v>
-    <v>91.24</v>
-    <v>90.51</v>
-    <v>90.5</v>
+    <v>92.14</v>
+    <v>89.47</v>
     <v>123351900</v>
     <v>ETSY</v>
     <v>ETSY, INC. (XNAS:ETSY)</v>
-    <v>3499488</v>
-    <v>3657664</v>
+    <v>1774506</v>
+    <v>3454469</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2446,8 +2445,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2468,7 +2465,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2485,7 +2481,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2496,16 +2492,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2571,19 +2564,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2628,9 +2615,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2638,9 +2622,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3002,10 +2983,10 @@
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N100" sqref="N100"/>
+      <selection pane="bottomRight" activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3843,15 +3824,15 @@
       </c>
       <c r="S16" s="36">
         <f>T101/L3</f>
-        <v>4.3507784616487752</v>
+        <v>4.4291303065222039</v>
       </c>
       <c r="T16" s="36">
         <f>T101/L28</f>
-        <v>-16.080618517099531</v>
+        <v>-16.370209480791832</v>
       </c>
       <c r="U16" s="37">
         <f>T101/L107</f>
-        <v>16.580034110265455</v>
+        <v>16.878618897345461</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -4000,15 +3981,15 @@
       </c>
       <c r="S19" s="36">
         <f>T101/M3</f>
-        <v>4.0392838165701885</v>
+        <v>4.1120260492040517</v>
       </c>
       <c r="T19" s="36">
         <f>T101/M28</f>
-        <v>18.287601095823096</v>
+        <v>18.616936936936938</v>
       </c>
       <c r="U19" s="37">
         <f>T101/M105</f>
-        <v>17.833845250701621</v>
+        <v>18.155009540930774</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -7090,7 +7071,7 @@
       </c>
       <c r="T94" s="48">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7450000000000004E-2</v>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7135,7 +7116,7 @@
       </c>
       <c r="T95" s="50" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>2.0038</v>
+        <v>2.004</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7224,7 +7205,7 @@
       </c>
       <c r="T97" s="47">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>0.13072689000000001</v>
+        <v>0.13095708</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7356,7 +7337,7 @@
       </c>
       <c r="T100" s="45">
         <f>T99/T103</f>
-        <v>0.17632841255967321</v>
+        <v>0.17375111862637407</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7401,7 +7382,7 @@
       </c>
       <c r="T101" s="51" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11164580469</v>
+        <v>11365640000</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7446,7 +7427,7 @@
       </c>
       <c r="T102" s="45">
         <f>T101/T103</f>
-        <v>0.82367158744032676</v>
+        <v>0.82624888137362595</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7491,7 +7472,7 @@
       </c>
       <c r="T103" s="52">
         <f>T99+T101</f>
-        <v>13554650469</v>
+        <v>13755710000</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7612,7 +7593,7 @@
       </c>
       <c r="T105" s="29">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>0.10867025827682052</v>
+        <v>0.10918284197488497</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7732,7 +7713,7 @@
       <c r="P107" s="27"/>
       <c r="Q107" s="53">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>15398840956.57127</v>
+        <v>15305078443.234165</v>
       </c>
       <c r="R107" s="54" t="s">
         <v>153</v>
@@ -7775,7 +7756,7 @@
       </c>
       <c r="Q108" s="53">
         <f>Q107+Q106</f>
-        <v>16655840956.57127</v>
+        <v>16562078443.234165</v>
       </c>
       <c r="R108" s="54" t="s">
         <v>151</v>
@@ -7785,7 +7766,7 @@
       </c>
       <c r="T108" s="58">
         <f>T105</f>
-        <v>0.10867025827682052</v>
+        <v>0.10918284197488497</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7800,7 +7781,7 @@
       </c>
       <c r="N110" s="51">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>12583511293.815586</v>
+        <v>12501586045.144171</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7827,7 +7808,7 @@
       </c>
       <c r="N113" s="51">
         <f>N110+N111-N112</f>
-        <v>11365132293.815586</v>
+        <v>11283207045.144171</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7845,7 +7826,7 @@
       </c>
       <c r="N115" s="62">
         <f>N113/N114</f>
-        <v>85.108924303136789</v>
+        <v>84.495418924806501</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7854,7 +7835,7 @@
       </c>
       <c r="N116" s="63" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>90.51</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
@@ -7863,7 +7844,7 @@
       </c>
       <c r="N117" s="65">
         <f>N115/N116-1</f>
-        <v>-5.9673800650350439E-2</v>
+        <v>-5.560054851004248E-2</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">

--- a/To Be Modeled/Etsy.xlsx
+++ b/To Be Modeled/Etsy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E3DDD7-DA04-9B4F-B2A4-3DFBD2E774C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4AE550-12A2-6B4E-A8D6-09EAE004ADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -568,18 +568,25 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -748,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -854,24 +861,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -886,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -971,29 +925,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1003,74 +943,75 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2213,7 +2154,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2222,14 +2162,17 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2243,15 +2186,15 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>4.0480000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2259,6 +2202,8 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2385,10 +2330,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>149.91</v>
-    <v>70.4602</v>
-    <v>2.004</v>
-    <v>-2.67</v>
-    <v>-2.8978E-2</v>
+    <v>78.239999999999995</v>
+    <v>1.9853000000000001</v>
+    <v>-0.15</v>
+    <v>-1.8090000000000001E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Etsy, Inc. (Etsy) operates two-sided online marketplaces that connect buyers and sellers around the world. The Company operates through four segments: Etsy, Reverb, Depop, and Elo7. The Company’s primary marketplace, Etsy.com, is the global destination for goods made by independent sellers. Its Reverb is a two-sided marketplace on the principle that buying and selling musical instruments should be easy. The Company’s Depop is dedicated to building a diverse and progressive home of fashion. Its Elo7, known as the Etsy of Brazil, specializes in custom and made-to-order merchandise. Its Elo7 marketplace includes items in over 40 retail categories. Its services include on-site advertising services, which allow Etsy sellers to pay for placement of its listings in search results, and shipping labels, which allow Etsy sellers in the United States, Canada, United Kingdom, Australia, and India to purchase discounted shipping labels.</v>
     <v>2790</v>
@@ -2396,24 +2343,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>117 Adams Street, BROOKLYN, NY, 11201 US</v>
-    <v>91.92</v>
+    <v>83.929900000000004</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45100.77398153906</v>
+    <v>45114.997048217185</v>
     <v>0</v>
-    <v>89.43</v>
-    <v>11365640000</v>
+    <v>82.6</v>
+    <v>10208600000</v>
     <v>ETSY, INC.</v>
     <v>ETSY, INC.</v>
-    <v>91.28</v>
+    <v>83</v>
     <v>31.364899999999999</v>
-    <v>92.14</v>
-    <v>89.47</v>
+    <v>82.91</v>
+    <v>82.76</v>
+    <v>82.76</v>
     <v>123351900</v>
     <v>ETSY</v>
     <v>ETSY, INC. (XNAS:ETSY)</v>
-    <v>1774506</v>
-    <v>3454469</v>
+    <v>3143370</v>
+    <v>3336357</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2445,6 +2393,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2465,6 +2415,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2481,7 +2432,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2492,13 +2443,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2564,13 +2518,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2615,6 +2575,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2622,6 +2585,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2983,10 +2949,10 @@
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N95" sqref="N95"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3033,19 +2999,19 @@
       <c r="L1" s="8">
         <v>2022</v>
       </c>
-      <c r="M1" s="33">
+      <c r="M1" s="27">
         <v>2023</v>
       </c>
-      <c r="N1" s="33">
+      <c r="N1" s="27">
         <v>2024</v>
       </c>
-      <c r="O1" s="33">
+      <c r="O1" s="27">
         <v>2025</v>
       </c>
-      <c r="P1" s="33">
+      <c r="P1" s="27">
         <v>2026</v>
       </c>
-      <c r="Q1" s="33">
+      <c r="Q1" s="27">
         <v>2027</v>
       </c>
     </row>
@@ -3135,19 +3101,19 @@
       <c r="L3" s="1">
         <v>2566111000</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="28">
         <v>2764000000</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="28">
         <v>3050000000</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="28">
         <v>3408000000</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="28">
         <v>3738000000</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="28">
         <v>4257000000</v>
       </c>
       <c r="R3" s="19" t="s">
@@ -3818,21 +3784,21 @@
       <c r="L16" s="1">
         <v>2480079000</v>
       </c>
-      <c r="R16" s="35">
+      <c r="R16" s="29">
         <f>(L35+K35+J35+I35+H35)/5</f>
         <v>1.0660615588119234E-2</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="30">
         <f>T101/L3</f>
-        <v>4.4291303065222039</v>
-      </c>
-      <c r="T16" s="36">
+        <v>3.9782378860462386</v>
+      </c>
+      <c r="T16" s="30">
         <f>T101/L28</f>
-        <v>-16.370209480791832</v>
-      </c>
-      <c r="U16" s="37">
+        <v>-14.703696448735972</v>
+      </c>
+      <c r="U16" s="31">
         <f>T101/L107</f>
-        <v>16.878618897345461</v>
+        <v>15.160348988305179</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -3960,36 +3926,36 @@
       <c r="L19" s="10">
         <v>-551108000</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="32">
         <v>759000000</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="32">
         <v>869000000</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="32">
         <v>1007000000</v>
       </c>
-      <c r="P19" s="38">
+      <c r="P19" s="32">
         <v>1225000000</v>
       </c>
-      <c r="Q19" s="38">
+      <c r="Q19" s="32">
         <v>1425000000</v>
       </c>
-      <c r="R19" s="39">
+      <c r="R19" s="33">
         <f>L40-L56-L61</f>
         <v>-1218379000</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="30">
         <f>T101/M3</f>
-        <v>4.1120260492040517</v>
-      </c>
-      <c r="T19" s="36">
+        <v>3.6934153400868306</v>
+      </c>
+      <c r="T19" s="30">
         <f>T101/M28</f>
-        <v>18.616936936936938</v>
-      </c>
-      <c r="U19" s="37">
+        <v>16.721703521703521</v>
+      </c>
+      <c r="U19" s="31">
         <f>T101/M105</f>
-        <v>18.155009540930774</v>
+        <v>16.306801059997138</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4058,7 +4024,7 @@
         <v>0.16326530612244894</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4095,25 +4061,31 @@
       <c r="L21" s="2">
         <v>-0.21479999999999999</v>
       </c>
-      <c r="M21" s="40">
+      <c r="M21" s="34">
         <f>M19/M3</f>
         <v>0.27460202604920403</v>
       </c>
-      <c r="N21" s="40">
+      <c r="N21" s="34">
         <f t="shared" ref="N21:Q21" si="4">N19/N3</f>
         <v>0.28491803278688527</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="34">
         <f t="shared" si="4"/>
         <v>0.295481220657277</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="34">
         <f t="shared" si="4"/>
         <v>0.32771535580524347</v>
       </c>
-      <c r="Q21" s="40">
+      <c r="Q21" s="34">
         <f t="shared" si="4"/>
         <v>0.3347427766032417</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="U21" s="20" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -4153,6 +4125,14 @@
       <c r="L22" s="10">
         <v>-658560000</v>
       </c>
+      <c r="T22" s="40">
+        <f>(-1*L98)/T101</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="41">
+        <f>L107/T101</f>
+        <v>6.5961542229100958E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -4381,19 +4361,19 @@
       <c r="L28" s="11">
         <v>-694288000</v>
       </c>
-      <c r="M28" s="41">
+      <c r="M28" s="35">
         <v>610500000</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="35">
         <v>698600000</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="35">
         <v>776300000</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="35">
         <v>918700000</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="35">
         <v>1014000000</v>
       </c>
     </row>
@@ -4500,23 +4480,23 @@
       <c r="L30" s="2">
         <v>-0.27060000000000001</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="36">
         <f>M28/M3</f>
         <v>0.22087554269175108</v>
       </c>
-      <c r="N30" s="42">
+      <c r="N30" s="36">
         <f t="shared" ref="N30:Q30" si="6">N28/N3</f>
         <v>0.22904918032786886</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="36">
         <f t="shared" si="6"/>
         <v>0.22778755868544601</v>
       </c>
-      <c r="P30" s="42">
+      <c r="P30" s="36">
         <f t="shared" si="6"/>
         <v>0.24577314071696094</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="36">
         <f t="shared" si="6"/>
         <v>0.23819591261451725</v>
       </c>
@@ -4558,19 +4538,19 @@
       <c r="L31" s="12">
         <v>-5.48</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="37">
         <v>4.95</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="37">
         <v>5.66</v>
       </c>
-      <c r="O31" s="43">
+      <c r="O31" s="37">
         <v>6.29</v>
       </c>
-      <c r="P31" s="43">
+      <c r="P31" s="37">
         <v>7.45</v>
       </c>
-      <c r="Q31" s="43">
+      <c r="Q31" s="37">
         <v>8.2200000000000006</v>
       </c>
     </row>
@@ -6569,10 +6549,10 @@
       <c r="L83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S83" s="69" t="s">
+      <c r="S83" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="T83" s="70"/>
+      <c r="T83" s="43"/>
     </row>
     <row r="84" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6611,10 +6591,10 @@
       <c r="L84" s="1">
         <v>532000</v>
       </c>
-      <c r="S84" s="71" t="s">
+      <c r="S84" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="T84" s="72"/>
+      <c r="T84" s="44"/>
     </row>
     <row r="85" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6653,10 +6633,10 @@
       <c r="L85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S85" s="24" t="s">
+      <c r="S85" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="T85" s="25">
+      <c r="T85" s="46">
         <f>L17</f>
         <v>14168000</v>
       </c>
@@ -6698,10 +6678,10 @@
       <c r="L86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S86" s="24" t="s">
+      <c r="S86" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="T86" s="25">
+      <c r="T86" s="46">
         <f>L56</f>
         <v>4731000</v>
       </c>
@@ -6743,10 +6723,10 @@
       <c r="L87" s="10">
         <v>683612000</v>
       </c>
-      <c r="S87" s="24" t="s">
+      <c r="S87" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="T87" s="25">
+      <c r="T87" s="46">
         <f>L61</f>
         <v>2385339000</v>
       </c>
@@ -6788,10 +6768,10 @@
       <c r="L88" s="1">
         <v>-10237000</v>
       </c>
-      <c r="S88" s="44" t="s">
+      <c r="S88" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="T88" s="45">
+      <c r="T88" s="48">
         <f>T85/(T86+T87)</f>
         <v>5.9278598534770952E-3</v>
       </c>
@@ -6844,10 +6824,10 @@
         <f t="shared" si="9"/>
         <v>3.9893052171164848E-3</v>
       </c>
-      <c r="S89" s="24" t="s">
+      <c r="S89" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="T89" s="25">
+      <c r="T89" s="46">
         <f>L27</f>
         <v>32310000</v>
       </c>
@@ -6889,10 +6869,10 @@
       <c r="L90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S90" s="24" t="s">
+      <c r="S90" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="T90" s="25">
+      <c r="T90" s="46">
         <f>L25*-1</f>
         <v>661978000</v>
       </c>
@@ -6934,10 +6914,10 @@
       <c r="L91" s="1">
         <v>-270345000</v>
       </c>
-      <c r="S91" s="44" t="s">
+      <c r="S91" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="T91" s="45">
+      <c r="T91" s="48">
         <f>T89/T90</f>
         <v>4.8808268552731363E-2</v>
       </c>
@@ -6979,10 +6959,10 @@
       <c r="L92" s="1">
         <v>277520000</v>
       </c>
-      <c r="S92" s="46" t="s">
+      <c r="S92" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="T92" s="47">
+      <c r="T92" s="48">
         <f>T88*(1-T91)</f>
         <v>5.6385312778056305E-3</v>
       </c>
@@ -7024,10 +7004,10 @@
       <c r="L93" s="1">
         <v>-26962000</v>
       </c>
-      <c r="S93" s="71" t="s">
+      <c r="S93" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="T93" s="72"/>
+      <c r="T93" s="44"/>
     </row>
     <row r="94" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7066,12 +7046,12 @@
       <c r="L94" s="10">
         <v>-30024000</v>
       </c>
-      <c r="S94" s="24" t="s">
+      <c r="S94" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="T94" s="48">
+      <c r="T94" s="49">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7111,12 +7091,12 @@
       <c r="L95" s="1">
         <v>-6332000</v>
       </c>
-      <c r="S95" s="49" t="s">
+      <c r="S95" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="T95" s="50" cm="1">
+      <c r="T95" s="51" cm="1">
         <f t="array" ref="T95">_FV(A1,"Beta")</f>
-        <v>2.004</v>
+        <v>1.9853000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7156,10 +7136,10 @@
       <c r="L96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S96" s="24" t="s">
+      <c r="S96" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="T96" s="48">
+      <c r="T96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7200,12 +7180,12 @@
       <c r="L97" s="1">
         <v>-425727000</v>
       </c>
-      <c r="S97" s="46" t="s">
+      <c r="S97" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="T97" s="47">
+      <c r="T97" s="48">
         <f>(T94)+((T95)*(T96-T94))</f>
-        <v>0.13095708</v>
+        <v>0.12688025600000002</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="19" x14ac:dyDescent="0.25">
@@ -7242,13 +7222,13 @@
       <c r="K98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S98" s="71" t="s">
+      <c r="L98" s="1">
+        <v>0</v>
+      </c>
+      <c r="S98" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="T98" s="72"/>
+      <c r="T98" s="44"/>
     </row>
     <row r="99" spans="1:20" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7287,10 +7267,10 @@
       <c r="L99" s="1">
         <v>-74425000</v>
       </c>
-      <c r="S99" s="24" t="s">
+      <c r="S99" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="T99" s="25">
+      <c r="T99" s="46">
         <f>T86+T87</f>
         <v>2390070000</v>
       </c>
@@ -7332,12 +7312,12 @@
       <c r="L100" s="10">
         <v>-506484000</v>
       </c>
-      <c r="S100" s="44" t="s">
+      <c r="S100" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="T100" s="45">
+      <c r="T100" s="48">
         <f>T99/T103</f>
-        <v>0.17375111862637407</v>
+        <v>0.18970811998409357</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7377,12 +7357,12 @@
       <c r="L101" s="1">
         <v>-6022000</v>
       </c>
-      <c r="S101" s="49" t="s">
+      <c r="S101" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="T101" s="51" cm="1">
+      <c r="T101" s="52" cm="1">
         <f t="array" ref="T101">_FV(A1,"Market cap",TRUE)</f>
-        <v>11365640000</v>
+        <v>10208600000</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7422,12 +7402,12 @@
       <c r="L102" s="10">
         <v>141082000</v>
       </c>
-      <c r="S102" s="44" t="s">
+      <c r="S102" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="T102" s="45">
+      <c r="T102" s="48">
         <f>T101/T103</f>
-        <v>0.82624888137362595</v>
+        <v>0.81029188001590646</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="20" x14ac:dyDescent="0.25">
@@ -7467,12 +7447,12 @@
       <c r="L103" s="1">
         <v>785537000</v>
       </c>
-      <c r="S103" s="46" t="s">
+      <c r="S103" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="T103" s="52">
+      <c r="T103" s="53">
         <f>T99+T101</f>
-        <v>13755710000</v>
+        <v>12598670000</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7512,10 +7492,10 @@
       <c r="L104" s="11">
         <v>926619000</v>
       </c>
-      <c r="S104" s="71" t="s">
+      <c r="S104" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="T104" s="72"/>
+      <c r="T104" s="44"/>
     </row>
     <row r="105" spans="1:20" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
@@ -7565,35 +7545,35 @@
         <f>((L22*(1-$T$91))+L77+L88+L81)</f>
         <v>565661173.33808672</v>
       </c>
-      <c r="M105" s="26">
+      <c r="M105" s="24">
         <f>L105*(1+$T$106)</f>
         <v>626033270.56237423</v>
       </c>
-      <c r="N105" s="26">
+      <c r="N105" s="24">
         <f t="shared" ref="N105:Q105" si="11">M105*(1+$T$106)</f>
         <v>692848783.55400205</v>
       </c>
-      <c r="O105" s="26">
+      <c r="O105" s="24">
         <f t="shared" si="11"/>
         <v>766795407.60035706</v>
       </c>
-      <c r="P105" s="26">
+      <c r="P105" s="24">
         <f t="shared" si="11"/>
         <v>848634234.58860672</v>
       </c>
-      <c r="Q105" s="26">
+      <c r="Q105" s="24">
         <f t="shared" si="11"/>
         <v>939207586.505445</v>
       </c>
-      <c r="R105" s="27" t="s">
+      <c r="R105" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="S105" s="28" t="s">
+      <c r="S105" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="T105" s="29">
+      <c r="T105" s="55">
         <f>(T100*T92)+(T102*T97)</f>
-        <v>0.10918284197488497</v>
+        <v>0.10387971633932352</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7644,28 +7624,28 @@
         <f>(L107/K107)-1</f>
         <v>8.0198145275521604E-2</v>
       </c>
-      <c r="M106" s="30">
+      <c r="M106" s="26">
         <v>686400000</v>
       </c>
-      <c r="N106" s="30">
+      <c r="N106" s="26">
         <v>785800000</v>
       </c>
-      <c r="O106" s="30">
+      <c r="O106" s="26">
         <v>907200000</v>
       </c>
-      <c r="P106" s="30">
+      <c r="P106" s="26">
         <v>1081000000</v>
       </c>
-      <c r="Q106" s="30">
+      <c r="Q106" s="26">
         <v>1257000000</v>
       </c>
-      <c r="R106" s="27" t="s">
+      <c r="R106" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="S106" s="31" t="s">
+      <c r="S106" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="T106" s="32">
+      <c r="T106" s="57">
         <f>(SUM(M4:Q4)/5)</f>
         <v>0.10672837392748566</v>
       </c>
@@ -7707,21 +7687,21 @@
       <c r="L107" s="1">
         <v>673375000</v>
       </c>
-      <c r="M107" s="27"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="27"/>
-      <c r="P107" s="27"/>
-      <c r="Q107" s="53">
+      <c r="M107" s="25"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="25"/>
+      <c r="Q107" s="38">
         <f>Q106*(1+T107)/(T108-T107)</f>
-        <v>15305078443.234165</v>
-      </c>
-      <c r="R107" s="54" t="s">
+        <v>16334047075.644562</v>
+      </c>
+      <c r="R107" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="S107" s="55" t="s">
+      <c r="S107" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="T107" s="56">
+      <c r="T107" s="59">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -7738,122 +7718,122 @@
       <c r="J108" s="13"/>
       <c r="K108" s="13"/>
       <c r="L108" s="13"/>
-      <c r="M108" s="53">
+      <c r="M108" s="38">
         <f t="shared" ref="M108:P108" si="13">M107+M106</f>
         <v>686400000</v>
       </c>
-      <c r="N108" s="53">
+      <c r="N108" s="38">
         <f t="shared" si="13"/>
         <v>785800000</v>
       </c>
-      <c r="O108" s="53">
+      <c r="O108" s="38">
         <f t="shared" si="13"/>
         <v>907200000</v>
       </c>
-      <c r="P108" s="53">
+      <c r="P108" s="38">
         <f t="shared" si="13"/>
         <v>1081000000</v>
       </c>
-      <c r="Q108" s="53">
+      <c r="Q108" s="38">
         <f>Q107+Q106</f>
-        <v>16562078443.234165</v>
-      </c>
-      <c r="R108" s="54" t="s">
+        <v>17591047075.644562</v>
+      </c>
+      <c r="R108" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="S108" s="57" t="s">
+      <c r="S108" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="T108" s="58">
+      <c r="T108" s="57">
         <f>T105</f>
-        <v>0.10918284197488497</v>
+        <v>0.10387971633932352</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="M109" s="67" t="s">
+      <c r="M109" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="N109" s="68"/>
+      <c r="N109" s="61"/>
     </row>
     <row r="110" spans="1:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="M110" s="59" t="s">
+      <c r="M110" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="N110" s="51">
+      <c r="N110" s="52">
         <f>NPV(T108,M108,N108,O108,P108,Q108)</f>
-        <v>12501586045.144171</v>
+        <v>13401170943.810709</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="M111" s="59" t="s">
+      <c r="M111" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="N111" s="51">
+      <c r="N111" s="52">
         <f>L40</f>
         <v>1171691000</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="M112" s="59" t="s">
+      <c r="M112" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="N112" s="51">
+      <c r="N112" s="52">
         <f>T99</f>
         <v>2390070000</v>
       </c>
     </row>
     <row r="113" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M113" s="59" t="s">
+      <c r="M113" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="N113" s="51">
+      <c r="N113" s="52">
         <f>N110+N111-N112</f>
-        <v>11283207045.144171</v>
+        <v>12182791943.810709</v>
       </c>
     </row>
     <row r="114" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M114" s="59" t="s">
+      <c r="M114" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="N114" s="60">
+      <c r="N114" s="62">
         <f>L34*(1+(5*R16))</f>
         <v>133536316.98287968</v>
       </c>
     </row>
     <row r="115" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M115" s="61" t="s">
+      <c r="M115" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="N115" s="62">
+      <c r="N115" s="64">
         <f>N113/N114</f>
-        <v>84.495418924806501</v>
+        <v>91.232049970141304</v>
       </c>
     </row>
     <row r="116" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M116" s="59" t="s">
+      <c r="M116" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="N116" s="63" cm="1">
+      <c r="N116" s="65" cm="1">
         <f t="array" ref="N116">_FV(A1,"Price")</f>
-        <v>89.47</v>
+        <v>82.76</v>
       </c>
     </row>
     <row r="117" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M117" s="64" t="s">
+      <c r="M117" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="N117" s="65">
+      <c r="N117" s="66">
         <f>N115/N116-1</f>
-        <v>-5.560054851004248E-2</v>
+        <v>0.10236889765757984</v>
       </c>
     </row>
     <row r="118" spans="13:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="M118" s="64" t="s">
+      <c r="M118" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="N118" s="66" t="str">
+      <c r="N118" s="67" t="str">
         <f>IF(N115&gt;N116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
